--- a/Assessment/contributions-summary-by-a1702065.xlsx
+++ b/Assessment/contributions-summary-by-a1702065.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a4954\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5434C-4922-4C70-870F-2B95840C9713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBE026C-1546-4964-97C4-01A9AC1130E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5797" yWindow="2062" windowWidth="15391" windowHeight="9533" xr2:uid="{2C0029F1-931C-FB40-B057-6910B2A1CD93}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{2C0029F1-931C-FB40-B057-6910B2A1CD93}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Contributions Assessed by:</t>
   </si>
@@ -145,6 +145,36 @@
   </si>
   <si>
     <t>worked on voting pages</t>
+  </si>
+  <si>
+    <t>fixed some style issues</t>
+  </si>
+  <si>
+    <t>mostly completed voting page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong communication and work ethic, continues to help other memebers </t>
+  </si>
+  <si>
+    <t>Great team work and overall coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong communication and suggestions on path of project </t>
+  </si>
+  <si>
+    <t>Helped to set the unique style of the whole application.</t>
+  </si>
+  <si>
+    <t>Finalized project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1724402 </t>
+  </si>
+  <si>
+    <t>a1720458</t>
+  </si>
+  <si>
+    <t>a1725532</t>
   </si>
 </sst>
 </file>
@@ -247,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,6 +308,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123791F-6216-E444-80F3-ACD6A6EE1C15}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -649,8 +692,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
+      <c r="A6" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -663,8 +706,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
+      <c r="A7" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>26</v>
@@ -676,9 +719,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
+    <row r="8" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>27</v>
@@ -691,8 +734,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
+      <c r="A9" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>29</v>
@@ -742,7 +785,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="str">
         <f>A6</f>
-        <v>a1DDDDDDD</v>
+        <v xml:space="preserve">a1724402 </v>
       </c>
       <c r="B14" s="9" t="str">
         <f>B6</f>
@@ -758,7 +801,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="str">
         <f t="shared" ref="A15:B15" si="0">A7</f>
-        <v>a1DDDDDDD</v>
+        <v>a1720458</v>
       </c>
       <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -774,7 +817,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="str">
         <f t="shared" ref="A16:B16" si="1">A8</f>
-        <v>a1DDDDDDD</v>
+        <v>a1725532</v>
       </c>
       <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -790,7 +833,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="str">
         <f t="shared" ref="A17:B17" si="2">A9</f>
-        <v>a1DDDDDDD</v>
+        <v>a1702065</v>
       </c>
       <c r="B17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -845,50 +888,66 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="str">
         <f t="shared" ref="A22:B22" si="4">A14</f>
-        <v>a1DDDDDDD</v>
+        <v xml:space="preserve">a1724402 </v>
       </c>
       <c r="B22" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Dan</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="str">
         <f t="shared" ref="A23:B23" si="5">A15</f>
-        <v>a1DDDDDDD</v>
+        <v>a1720458</v>
       </c>
       <c r="B23" s="9" t="str">
         <f t="shared" si="5"/>
         <v>Parthey</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="str">
         <f t="shared" ref="A24:B24" si="6">A16</f>
-        <v>a1DDDDDDD</v>
+        <v>a1725532</v>
       </c>
       <c r="B24" s="9" t="str">
         <f t="shared" si="6"/>
         <v>Max</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="str">
         <f t="shared" ref="A25:B25" si="7">A17</f>
-        <v>a1DDDDDDD</v>
+        <v>a1702065</v>
       </c>
       <c r="B25" s="9" t="str">
         <f t="shared" si="7"/>
         <v>Xuxin</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12" t="str">
@@ -930,50 +989,66 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="str">
         <f t="shared" ref="A30:B30" si="9">A22</f>
-        <v>a1DDDDDDD</v>
+        <v xml:space="preserve">a1724402 </v>
       </c>
       <c r="B30" s="9" t="str">
         <f t="shared" si="9"/>
         <v>Dan</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="str">
         <f t="shared" ref="A31:B31" si="10">A23</f>
-        <v>a1DDDDDDD</v>
+        <v>a1720458</v>
       </c>
       <c r="B31" s="9" t="str">
         <f t="shared" si="10"/>
         <v>Parthey</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="str">
         <f t="shared" ref="A32:B32" si="11">A24</f>
-        <v>a1DDDDDDD</v>
+        <v>a1725532</v>
       </c>
       <c r="B32" s="9" t="str">
         <f t="shared" si="11"/>
         <v>Max</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="str">
         <f t="shared" ref="A33:B33" si="12">A25</f>
-        <v>a1DDDDDDD</v>
+        <v>a1702065</v>
       </c>
       <c r="B33" s="9" t="str">
         <f t="shared" si="12"/>
         <v>Xuxin</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12" t="str">
